--- a/src/etm/util_files/separation_rules.xlsx
+++ b/src/etm/util_files/separation_rules.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10914"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029A3927-F2C8-4083-92CF-013BB0726F29}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D25AC57-3BD3-BE43-B503-100EB3F01F28}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -431,9 +431,9 @@
       <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -447,7 +447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>198708</v>
       </c>
@@ -464,7 +464,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>198709</v>
       </c>
@@ -481,7 +481,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>198711</v>
       </c>
@@ -498,7 +498,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>198712</v>
       </c>
@@ -515,7 +515,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>198802</v>
       </c>
@@ -532,7 +532,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>198803</v>
       </c>
@@ -549,7 +549,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>198806</v>
       </c>
@@ -566,7 +566,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>198808</v>
       </c>
@@ -583,7 +583,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>198809</v>
       </c>
@@ -600,7 +600,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>198811</v>
       </c>
@@ -617,7 +617,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>198812</v>
       </c>
@@ -634,7 +634,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>198902</v>
       </c>
@@ -651,7 +651,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>198903</v>
       </c>
@@ -668,7 +668,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>198905</v>
       </c>
@@ -685,7 +685,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>198907</v>
       </c>
@@ -702,7 +702,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>198908</v>
       </c>
@@ -719,7 +719,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>198910</v>
       </c>
@@ -736,7 +736,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>198911</v>
       </c>
@@ -753,7 +753,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>198912</v>
       </c>
@@ -770,7 +770,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>199002</v>
       </c>
@@ -787,7 +787,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>199003</v>
       </c>
@@ -804,7 +804,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>199005</v>
       </c>
@@ -821,7 +821,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>199007</v>
       </c>
@@ -838,7 +838,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>199008</v>
       </c>
@@ -855,7 +855,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>199010</v>
       </c>
@@ -872,7 +872,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>199011</v>
       </c>
@@ -889,7 +889,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>199012</v>
       </c>
@@ -906,7 +906,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>199102</v>
       </c>
@@ -923,7 +923,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>199103</v>
       </c>
@@ -940,7 +940,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>199105</v>
       </c>
@@ -957,7 +957,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>199107</v>
       </c>
@@ -974,7 +974,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>199108</v>
       </c>
@@ -991,7 +991,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>199110</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>199111</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>199112</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>199202</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>199203</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>199205</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>199207</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>199208</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>199210</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>199211</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>199212</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>199302</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>199303</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>199305</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>199307</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>199308</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>199309</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>199311</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>199312</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>199402</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>199403</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>199405</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>199407</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>199408</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>199409</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>199411</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>199412</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>199502</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>199503</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>199505</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>199507</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>199508</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>199509</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>199511</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>199512</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>199601</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>199603</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>199605</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>199607</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>199608</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>199609</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>199611</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>199612</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>199702</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>199703</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>199705</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>199707</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>199708</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>199709</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>199711</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>199712</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>199802</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>199803</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>199805</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>199807</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>199808</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>199809</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>199811</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>199812</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>199902</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>199903</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>199905</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>199906</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>199908</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>199910</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>199911</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>199912</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>200002</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>200003</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>200005</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>200006</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>200008</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>200010</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>200011</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>200012</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>200101</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>200103</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>200105</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>200106</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>200108</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>200110</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>200111</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>200112</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>200201</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>200203</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>200205</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>200206</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>200208</v>
       </c>
@@ -2487,7 +2487,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>200209</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>200211</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>200212</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>200301</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>200303</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>200305</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>200306</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>200308</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>200309</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>200310</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>200312</v>
       </c>
@@ -2674,7 +2674,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>200401</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>200403</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>200405</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>200406</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>200408</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>200409</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>200411</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>200412</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>200502</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>200503</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>200505</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>200506</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>200508</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>200509</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>200511</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>200512</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>200601</v>
       </c>
